--- a/时间管理大师/2022/第三期/2022-9月.xlsx
+++ b/时间管理大师/2022/第三期/2022-9月.xlsx
@@ -9,20 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-125" yWindow="-125" windowWidth="29038" windowHeight="15840"/>
+    <workbookView xWindow="-125" yWindow="-125" windowWidth="24142" windowHeight="9667"/>
   </bookViews>
   <sheets>
-    <sheet name="2022-9-14" sheetId="6" r:id="rId1"/>
-    <sheet name="2022-9-11" sheetId="5" r:id="rId2"/>
-    <sheet name="时间记录表格" sheetId="1" r:id="rId3"/>
-    <sheet name="填写说明" sheetId="2" r:id="rId4"/>
-    <sheet name="下拉列表" sheetId="4" r:id="rId5"/>
+    <sheet name="2022-10-9" sheetId="13" r:id="rId1"/>
+    <sheet name="2022-10-5" sheetId="12" r:id="rId2"/>
+    <sheet name="2022-10-4" sheetId="10" r:id="rId3"/>
+    <sheet name="2022-10-2" sheetId="9" r:id="rId4"/>
+    <sheet name="2022-9-14" sheetId="6" r:id="rId5"/>
+    <sheet name="beegfs分级迁移项目" sheetId="7" r:id="rId6"/>
+    <sheet name="2022-9-11" sheetId="5" r:id="rId7"/>
+    <sheet name="时间记录表格" sheetId="1" r:id="rId8"/>
+    <sheet name="填写说明" sheetId="2" r:id="rId9"/>
+    <sheet name="下拉列表" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="113">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,6 +318,177 @@
     <t>统计 迁移进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>rpm打包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">分类 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除去Python3库和 mpichi ，其余是rpm一键打包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回顾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpm打包 10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ob pr 提交 10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习</t>
+  </si>
+  <si>
+    <t>阅读</t>
+  </si>
+  <si>
+    <t>无论任务情况不生气，你耐心解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用知识解决问题，你知识是否足够，部署规避问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用知识解决问题 --等待删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试任务因为磁盘空间问 阻塞了一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最主要事情没有做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三只青蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>issues/1038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通勤</t>
+  </si>
+  <si>
+    <t>娱乐</t>
+  </si>
+  <si>
+    <t>(空白)</t>
+  </si>
+  <si>
+    <t>第一个青蛙：成为ob贡献者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交pr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不完成不切换 等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化：舍去centos7.9上编译ob 太慢了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间黑洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习邹小强时间管理营 10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">关闭这个软件 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">吃饭 看动漫 ，睡觉 看动漫 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在工作和课程不断切换 嘛了 边听看工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目--编译rpm包 三天了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前面3天解决环境问题，还开始工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 没有讨论 思路问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熬夜 充钱 看腾讯视频 中午 晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学到一个新方法，然后任务完成了，就放松了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个青蛙：项目--编译rpm包 第四天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 如果完不成，不做其他事情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起床 上班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试 整体功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咨询ob如恶化单元测试问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间黑洞 同时做很多事情 ，不停切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -323,7 +498,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,6 +534,25 @@
       <color theme="4"/>
       <name val="思源黑体 CN Normal"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="思源黑体 CN Normal"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="思源黑体 CN Normal"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="思源黑体 CN Normal"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -430,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -439,7 +633,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -452,11 +645,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -485,11 +673,36 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="85">
+  <dxfs count="193">
     <dxf>
       <font>
         <b val="0"/>
@@ -1065,6 +1278,934 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="h:mm;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="h:mm;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="h:mm;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="h:mm;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="思源黑体 CN Normal"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="思源黑体 CN Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1258,6 +2399,622 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>98562</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>79512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1742564</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>155712</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D32302BA-4449-4165-8E47-7719D24F1D56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="98562" y="79512"/>
+          <a:ext cx="13332419" cy="934941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400" b="1">
+              <a:latin typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>时间日志</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>122327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1644002</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>198527</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D32302BA-4449-4165-8E47-7719D24F1D56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="122327"/>
+          <a:ext cx="13332419" cy="934941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400" b="1">
+              <a:latin typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>时间日志 ：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="1">
+              <a:latin typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>2022-10-5</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="1">
+            <a:latin typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>98562</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>79512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1742564</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>155712</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D32302BA-4449-4165-8E47-7719D24F1D56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="98562" y="79512"/>
+          <a:ext cx="13332419" cy="934941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400" b="1">
+              <a:latin typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>时间日志</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>122327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1644002</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>198527</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D32302BA-4449-4165-8E47-7719D24F1D56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="122327"/>
+          <a:ext cx="13332419" cy="934941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400" b="1">
+              <a:latin typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>时间日志 ：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="1">
+              <a:latin typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>2022-10-5</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="1">
+            <a:latin typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>98562</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>79512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1742564</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>155712</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D32302BA-4449-4165-8E47-7719D24F1D56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="98562" y="79512"/>
+          <a:ext cx="10597171" cy="934941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400" b="1">
+              <a:latin typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>时间日志</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>122327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1644002</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>198527</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D32302BA-4449-4165-8E47-7719D24F1D56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="122327"/>
+          <a:ext cx="12103025" cy="938611"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400" b="1">
+              <a:latin typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>时间日志 ：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="1">
+              <a:latin typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>2022-10-4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="1">
+            <a:latin typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>98562</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>79512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1742564</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>155712</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D32302BA-4449-4165-8E47-7719D24F1D56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="98562" y="79512"/>
+          <a:ext cx="11014308" cy="938611"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400" b="1">
+              <a:latin typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>时间日志</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>165842</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>73396</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1809844</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>149596</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D32302BA-4449-4165-8E47-7719D24F1D56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="165842" y="73396"/>
+          <a:ext cx="10219178" cy="938611"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400" b="1">
+              <a:latin typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>时间日志 ：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="1">
+              <a:latin typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>2022-10-2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="1">
+            <a:latin typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="思源黑体 CN Normal" panose="020B0400000000000000" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1331,7 +3088,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1405,7 +3162,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1480,7 +3237,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="aaa aaa" refreshedDate="44154.61887662037" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="16">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="troy wang (王传义)" refreshedDate="44838.358994675924" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="16">
   <cacheSource type="worksheet">
     <worksheetSource name="表1"/>
   </cacheSource>
@@ -1528,174 +3285,9 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="16">
-  <r>
-    <n v="1"/>
-    <d v="1899-12-30T12:25:00"/>
-    <d v="1899-12-30T01:20:00"/>
-    <n v="80"/>
-    <s v="午餐+小睡"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <n v="2"/>
-    <d v="1899-12-30T13:45:00"/>
-    <d v="1899-12-30T00:30:00"/>
-    <n v="30"/>
-    <s v="处理上午棘手耗时的邮件，与同事讨论"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <n v="3"/>
-    <d v="1899-12-30T14:15:00"/>
-    <d v="1899-12-30T00:15:00"/>
-    <n v="15"/>
-    <s v="根据讨论结果再整理思路，查阅文件等定下方案，待与老板沟通和讨论"/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-  </r>
-  <r>
-    <n v="4"/>
-    <d v="1899-12-30T14:30:00"/>
-    <d v="1899-12-30T00:05:00"/>
-    <n v="5"/>
-    <s v="提醒同事我要准备review file了，去洗手间，准备好review file的资料等"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-  </r>
-  <r>
-    <n v="6"/>
-    <d v="1899-12-30T14:35:00"/>
-    <n v="-0.60763888888888895"/>
-    <e v="#NUM!"/>
-    <m/>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-  </r>
-  <r>
-    <n v="7"/>
-    <m/>
-    <d v="1899-12-30T00:00:00"/>
-    <n v="0"/>
-    <m/>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-  </r>
-  <r>
-    <n v="8"/>
-    <m/>
-    <d v="1899-12-30T00:00:00"/>
-    <n v="0"/>
-    <m/>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-  </r>
-  <r>
-    <n v="9"/>
-    <m/>
-    <d v="1899-12-30T00:00:00"/>
-    <n v="0"/>
-    <m/>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-  </r>
-  <r>
-    <n v="10"/>
-    <m/>
-    <d v="1899-12-30T00:00:00"/>
-    <n v="0"/>
-    <m/>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-  </r>
-  <r>
-    <n v="11"/>
-    <m/>
-    <d v="1899-12-30T00:00:00"/>
-    <n v="0"/>
-    <m/>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-  </r>
-  <r>
-    <n v="12"/>
-    <m/>
-    <d v="1899-12-30T00:00:00"/>
-    <n v="0"/>
-    <m/>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-  </r>
-  <r>
-    <n v="13"/>
-    <m/>
-    <d v="1899-12-30T00:00:00"/>
-    <n v="0"/>
-    <m/>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-  </r>
-  <r>
-    <n v="14"/>
-    <m/>
-    <d v="1899-12-30T00:00:00"/>
-    <n v="0"/>
-    <m/>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-  </r>
-  <r>
-    <n v="15"/>
-    <m/>
-    <d v="1899-12-30T00:00:00"/>
-    <n v="0"/>
-    <m/>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-  </r>
-  <r>
-    <n v="16"/>
-    <m/>
-    <d v="1899-12-30T00:00:00"/>
-    <n v="0"/>
-    <m/>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-  </r>
-  <r>
-    <n v="17"/>
-    <m/>
-    <d v="1899-12-30T00:00:00"/>
-    <n v="0"/>
-    <m/>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="K17:M20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="L14:N17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1743,26 +3335,26 @@
     <dataField name="求和项:分钟2" fld="3" showDataAs="percentOfCol" baseField="5" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="74">
+    <format dxfId="182">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="73">
+    <format dxfId="181">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="180">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="179">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="178">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="177">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -1782,7 +3374,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="K8:M13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -1879,7 +3471,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K17:M20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -1968,7 +3560,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="K8:M13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -2065,7 +3657,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K17:M20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -2154,7 +3746,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="K8:M13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -2251,7 +3843,842 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="L5:N10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="177" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="时长（分钟）" fld="3" baseField="6" baseItem="3"/>
+    <dataField name="占比" fld="3" showDataAs="percentOfCol" baseField="6" baseItem="1" numFmtId="10"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="188">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="187">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="186">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="185">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="184">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="183">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="L5:N10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="177" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="时长（分钟）" fld="3" baseField="6" baseItem="3"/>
+    <dataField name="占比" fld="3" showDataAs="percentOfCol" baseField="6" baseItem="1" numFmtId="10"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="155">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="154">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="153">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="152">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="151">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="150">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L14:N17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="177" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="求和项:分钟" fld="3" baseField="5" baseItem="0"/>
+    <dataField name="求和项:分钟2" fld="3" showDataAs="percentOfCol" baseField="5" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="161">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="160">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="159">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="158">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="157">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="156">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L14:N17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="177" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="求和项:分钟" fld="3" baseField="5" baseItem="0"/>
+    <dataField name="求和项:分钟2" fld="3" showDataAs="percentOfCol" baseField="5" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="128">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="127">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="126">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="125">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="124">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="123">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="L5:N10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="177" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="时长（分钟）" fld="3" baseField="6" baseItem="3"/>
+    <dataField name="占比" fld="3" showDataAs="percentOfCol" baseField="6" baseItem="1" numFmtId="10"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="134">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="133">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="132">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="131">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="130">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="129">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="L5:N10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="177" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="时长（分钟）" fld="3" baseField="6" baseItem="3"/>
+    <dataField name="占比" fld="3" showDataAs="percentOfCol" baseField="6" baseItem="1" numFmtId="10"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="101">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="100">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="99">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="98">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="97">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="96">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L14:N18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="177" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="求和项:分钟" fld="3" baseField="5" baseItem="0"/>
+    <dataField name="求和项:分钟2" fld="3" showDataAs="percentOfCol" baseField="5" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="107">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="106">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="105">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="104">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="103">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="102">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="K17:M20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="177" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="求和项:分钟" fld="3" baseField="5" baseItem="0"/>
+    <dataField name="求和项:分钟2" fld="3" showDataAs="percentOfCol" baseField="5" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="74">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="73">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="72">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="71">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="70">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="69">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="表1_4678910" displayName="表1_4678910" ref="B5:J21" totalsRowShown="0" headerRowDxfId="176" dataDxfId="175">
+  <autoFilter ref="B5:J21"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="序号" dataDxfId="174"/>
+    <tableColumn id="2" name="开始时间" dataDxfId="173"/>
+    <tableColumn id="3" name="时长" dataDxfId="172">
+      <calculatedColumnFormula>C7-表1_4678910[[#This Row],[开始时间]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="分钟" dataDxfId="171">
+      <calculatedColumnFormula>(C7-C6)*24*60</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="事件" dataDxfId="170"/>
+    <tableColumn id="10" name="下一步行动" dataDxfId="169"/>
+    <tableColumn id="8" name="时间分类" dataDxfId="168"/>
+    <tableColumn id="5" name="产出效能" dataDxfId="167"/>
+    <tableColumn id="6" name="回顾" dataDxfId="166"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表1_46789" displayName="表1_46789" ref="B5:J21" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
+  <autoFilter ref="B5:J21"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="序号" dataDxfId="147"/>
+    <tableColumn id="2" name="开始时间" dataDxfId="146"/>
+    <tableColumn id="3" name="时长" dataDxfId="145">
+      <calculatedColumnFormula>C7-表1_46789[[#This Row],[开始时间]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="分钟" dataDxfId="144">
+      <calculatedColumnFormula>(C7-C6)*24*60</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="事件" dataDxfId="143"/>
+    <tableColumn id="10" name="下一步行动" dataDxfId="142"/>
+    <tableColumn id="8" name="时间分类" dataDxfId="141"/>
+    <tableColumn id="5" name="产出效能" dataDxfId="140"/>
+    <tableColumn id="6" name="回顾" dataDxfId="139"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表1_4678" displayName="表1_4678" ref="B5:J21" totalsRowShown="0" headerRowDxfId="122" dataDxfId="121">
+  <autoFilter ref="B5:J21"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="序号" dataDxfId="120"/>
+    <tableColumn id="2" name="开始时间" dataDxfId="119"/>
+    <tableColumn id="3" name="时长" dataDxfId="118">
+      <calculatedColumnFormula>C7-表1_4678[[#This Row],[开始时间]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="分钟" dataDxfId="117">
+      <calculatedColumnFormula>(C7-C6)*24*60</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="事件" dataDxfId="116"/>
+    <tableColumn id="10" name="下一步行动" dataDxfId="115"/>
+    <tableColumn id="8" name="时间分类" dataDxfId="114"/>
+    <tableColumn id="5" name="产出效能" dataDxfId="113"/>
+    <tableColumn id="6" name="回顾" dataDxfId="112"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表1_467" displayName="表1_467" ref="B5:J21" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+  <autoFilter ref="B5:J21"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="序号" dataDxfId="93"/>
+    <tableColumn id="2" name="开始时间" dataDxfId="92"/>
+    <tableColumn id="3" name="时长" dataDxfId="91">
+      <calculatedColumnFormula>C7-表1_467[[#This Row],[开始时间]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="分钟" dataDxfId="90">
+      <calculatedColumnFormula>HOUR(表1_467[开始时间])*60+MINUTE(表1_467[开始时间])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="事件" dataDxfId="89"/>
+    <tableColumn id="9" name="下一步行动" dataDxfId="88"/>
+    <tableColumn id="8" name="时间分类" dataDxfId="87"/>
+    <tableColumn id="5" name="产出效能" dataDxfId="86"/>
+    <tableColumn id="6" name="回顾" dataDxfId="85"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表1_46" displayName="表1_46" ref="B8:I24" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="B8:I24"/>
   <tableColumns count="8">
@@ -2272,7 +4699,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_4" displayName="表1_4" ref="B8:I24" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="B8:I24"/>
   <tableColumns count="8">
@@ -2293,7 +4720,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B8:I24" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="B8:I24"/>
   <tableColumns count="8">
@@ -2314,7 +4741,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:B5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:B5"/>
   <tableColumns count="2">
@@ -2325,7 +4752,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="D1:D10" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="D1:D10"/>
   <tableColumns count="1">
@@ -2598,10 +5025,2559 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.55" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.21875" style="3" customWidth="1"/>
+    <col min="2" max="3" width="11.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="0.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="13.109375" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" ht="22.55" customHeight="1">
+      <c r="L2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="16"/>
+    </row>
+    <row r="3" spans="2:16" ht="22.55" customHeight="1">
+      <c r="L3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="19">
+        <v>44836</v>
+      </c>
+      <c r="P3" s="16"/>
+    </row>
+    <row r="4" spans="2:16" ht="22.55" customHeight="1">
+      <c r="L4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="20">
+        <v>0.59930555555555554</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="15.05">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="15.05">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C7-表1_4678910[[#This Row],[开始时间]]</f>
+        <v>0.22361111111111115</v>
+      </c>
+      <c r="E6" s="2">
+        <f>(C7-C6)*24*60</f>
+        <v>322</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="25">
+        <v>15</v>
+      </c>
+      <c r="N6" s="26">
+        <v>0.11538461538461539</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="15.05">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C8-表1_4678910[[#This Row],[开始时间]]</f>
+        <v>1.2499999999999956E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" ref="E7:E21" si="0">(C8-C7)*24*60</f>
+        <v>17.999999999999936</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="25">
+        <v>80</v>
+      </c>
+      <c r="N7" s="26">
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="15.05">
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.59166666666666667</v>
+      </c>
+      <c r="D8" s="5">
+        <f>C9-表1_4678910[[#This Row],[开始时间]]</f>
+        <v>0.11319444444444449</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>163.00000000000006</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="25">
+        <v>5</v>
+      </c>
+      <c r="N8" s="26">
+        <v>3.8461538461538464E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="15.05">
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C10-表1_4678910[[#This Row],[开始时间]]</f>
+        <v>-0.70486111111111116</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>-1015.0000000000001</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="25">
+        <v>30</v>
+      </c>
+      <c r="N9" s="26">
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="15.05">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5">
+        <f>C11-表1_4678910[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="L10" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="25">
+        <v>130</v>
+      </c>
+      <c r="N10" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="22.55" customHeight="1">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5">
+        <f>C12-表1_4678910[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="22.55" customHeight="1">
+      <c r="B12" s="28">
+        <v>8</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30">
+        <f>C13-表1_4678910[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="22.55" customHeight="1">
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5">
+        <f>C14-表1_4678910[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="15.05">
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5">
+        <f>C15-表1_4678910[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="15.05">
+      <c r="B15" s="1">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5">
+        <f>C16-表1_4678910[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="25">
+        <v>45</v>
+      </c>
+      <c r="N15" s="26">
+        <v>0.34615384615384615</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="15.05">
+      <c r="B16" s="1">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5">
+        <f>C17-表1_4678910[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="25">
+        <v>85</v>
+      </c>
+      <c r="N16" s="26">
+        <v>0.65384615384615385</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="15.05">
+      <c r="B17" s="1">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5">
+        <f>C18-表1_4678910[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="L17" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="25">
+        <v>130</v>
+      </c>
+      <c r="N17" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="22.55" customHeight="1">
+      <c r="B18" s="1">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5">
+        <f>C19-表1_4678910[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="2:14" ht="22.55" customHeight="1">
+      <c r="B19" s="1">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5">
+        <f>C20-表1_4678910[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="2:14" ht="22.55" customHeight="1">
+      <c r="B20" s="1">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5">
+        <f>C21-表1_4678910[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="2:14" ht="22.55" customHeight="1">
+      <c r="B21" s="1">
+        <v>17</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5">
+        <f>C22-表1_4678910[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{4C886996-3289-423D-9C8C-C997D5E586AC}">
+            <xm:f>下拉列表!$A$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{07A507F8-4408-45B4-9206-60ADAD713FBC}">
+            <xm:f>下拉列表!$A$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{E641B359-3F7E-4239-8AE2-302465B04A39}">
+            <xm:f>下拉列表!$A$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{23E5C1EE-287F-4A92-9F54-A1FBCE454DBC}">
+            <xm:f>下拉列表!$A$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color auto="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor auto="1"/>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I6:I21</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>下拉列表!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>I6:I21</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>下拉列表!$D$2:$D$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>H6:H21</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.55" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="10.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="10.21875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="22.55" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="22.55" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="22.55" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="22.55" customHeight="1">
+      <c r="A4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="22.55" customHeight="1">
+      <c r="A5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="22.55" customHeight="1">
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="22.55" customHeight="1">
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="22.55" customHeight="1">
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="22.55" customHeight="1">
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="22.55" customHeight="1">
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.55" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.21875" style="3" customWidth="1"/>
+    <col min="2" max="3" width="11.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="0.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="13.109375" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" ht="22.55" customHeight="1">
+      <c r="L2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="16"/>
+    </row>
+    <row r="3" spans="2:16" ht="22.55" customHeight="1">
+      <c r="L3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="19">
+        <v>44836</v>
+      </c>
+      <c r="P3" s="16"/>
+    </row>
+    <row r="4" spans="2:16" ht="22.55" customHeight="1">
+      <c r="L4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="20">
+        <v>0.59930555555555554</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="15.05">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="15.05">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C7-表1_46789[[#This Row],[开始时间]]</f>
+        <v>0.17499999999999993</v>
+      </c>
+      <c r="E6" s="2">
+        <f>(C7-C6)*24*60</f>
+        <v>251.99999999999991</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="25">
+        <v>15</v>
+      </c>
+      <c r="N6" s="26">
+        <v>0.11538461538461539</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="15.05">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C8-表1_46789[[#This Row],[开始时间]]</f>
+        <v>-0.57986111111111105</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" ref="E7:E21" si="0">(C8-C7)*24*60</f>
+        <v>-834.99999999999989</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="25">
+        <v>80</v>
+      </c>
+      <c r="N7" s="26">
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="15.05">
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5">
+        <f>C9-表1_46789[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="25">
+        <v>5</v>
+      </c>
+      <c r="N8" s="26">
+        <v>3.8461538461538464E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="15.05">
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5">
+        <f>C10-表1_46789[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="25">
+        <v>30</v>
+      </c>
+      <c r="N9" s="26">
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="15.05">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5">
+        <f>C11-表1_46789[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="L10" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="25">
+        <v>130</v>
+      </c>
+      <c r="N10" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="22.55" customHeight="1">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5">
+        <f>C12-表1_46789[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="22.55" customHeight="1">
+      <c r="B12" s="28">
+        <v>8</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30">
+        <f>C13-表1_46789[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="22.55" customHeight="1">
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5">
+        <f>C14-表1_46789[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="15.05">
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5">
+        <f>C15-表1_46789[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="15.05">
+      <c r="B15" s="1">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5">
+        <f>C16-表1_46789[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="25">
+        <v>45</v>
+      </c>
+      <c r="N15" s="26">
+        <v>0.34615384615384615</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="15.05">
+      <c r="B16" s="1">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5">
+        <f>C17-表1_46789[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="25">
+        <v>85</v>
+      </c>
+      <c r="N16" s="26">
+        <v>0.65384615384615385</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="15.05">
+      <c r="B17" s="1">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5">
+        <f>C18-表1_46789[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="L17" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="25">
+        <v>130</v>
+      </c>
+      <c r="N17" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="22.55" customHeight="1">
+      <c r="B18" s="1">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5">
+        <f>C19-表1_46789[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="2:14" ht="22.55" customHeight="1">
+      <c r="B19" s="1">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5">
+        <f>C20-表1_46789[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="2:14" ht="22.55" customHeight="1">
+      <c r="B20" s="1">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5">
+        <f>C21-表1_46789[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="2:14" ht="22.55" customHeight="1">
+      <c r="B21" s="1">
+        <v>17</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5">
+        <f>C22-表1_46789[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{46629575-648D-4745-89A7-3E48AC70FC62}">
+            <xm:f>下拉列表!$A$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{822D4DF6-B294-4D8F-B749-7272D27C721D}">
+            <xm:f>下拉列表!$A$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{5FEF1FAB-AF61-45C7-B3D7-D318D05304D4}">
+            <xm:f>下拉列表!$A$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{2FA5BBA9-450E-4991-9E95-825FD25C0478}">
+            <xm:f>下拉列表!$A$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color auto="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor auto="1"/>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I6:I21</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>下拉列表!$D$2:$D$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>H6:H21</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>下拉列表!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>I6:I21</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.55" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.21875" style="3" customWidth="1"/>
+    <col min="2" max="3" width="11.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="0.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="13.109375" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" ht="22.55" customHeight="1">
+      <c r="L2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="16"/>
+    </row>
+    <row r="3" spans="2:16" ht="22.55" customHeight="1">
+      <c r="L3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="19">
+        <v>44836</v>
+      </c>
+      <c r="P3" s="16"/>
+    </row>
+    <row r="4" spans="2:16" ht="22.55" customHeight="1">
+      <c r="L4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="20">
+        <v>0.59930555555555554</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="15.05">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="15.05">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C7-表1_4678[[#This Row],[开始时间]]</f>
+        <v>2.1527777777777757E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <f>(C7-C6)*24*60</f>
+        <v>30.999999999999972</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="25">
+        <v>15</v>
+      </c>
+      <c r="N6" s="26">
+        <v>0.11538461538461539</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="15.05">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C8-表1_4678[[#This Row],[开始时间]]</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" ref="E7:E21" si="0">(C8-C7)*24*60</f>
+        <v>320</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="25">
+        <v>80</v>
+      </c>
+      <c r="N7" s="26">
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="15.05">
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.60555555555555551</v>
+      </c>
+      <c r="D8" s="5">
+        <f>C9-表1_4678[[#This Row],[开始时间]]</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>30.000000000000053</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="25">
+        <v>5</v>
+      </c>
+      <c r="N8" s="26">
+        <v>3.8461538461538464E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="15.05">
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.62638888888888888</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C10-表1_4678[[#This Row],[开始时间]]</f>
+        <v>4.2361111111111183E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>61.000000000000099</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="25">
+        <v>30</v>
+      </c>
+      <c r="N9" s="26">
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="15.05">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.66875000000000007</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C11-表1_4678[[#This Row],[开始时间]]</f>
+        <v>8.6111111111111027E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>123.99999999999989</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="L10" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="25">
+        <v>130</v>
+      </c>
+      <c r="N10" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="22.55" customHeight="1">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.75486111111111109</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C12-表1_4678[[#This Row],[开始时间]]</f>
+        <v>0.24027777777777781</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>346.00000000000006</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="22.55" customHeight="1">
+      <c r="B12" s="28">
+        <v>8</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.99513888888888891</v>
+      </c>
+      <c r="D12" s="30">
+        <f>C13-表1_4678[[#This Row],[开始时间]]</f>
+        <v>-0.91180555555555554</v>
+      </c>
+      <c r="E12" s="31">
+        <f t="shared" si="0"/>
+        <v>-1313</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="22.55" customHeight="1">
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D13" s="5">
+        <f>C14-表1_4678[[#This Row],[开始时间]]</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>-120</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="15.05">
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5">
+        <f>C15-表1_4678[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="15.05">
+      <c r="B15" s="1">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5">
+        <f>C16-表1_4678[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="25">
+        <v>45</v>
+      </c>
+      <c r="N15" s="26">
+        <v>0.34615384615384615</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="15.05">
+      <c r="B16" s="1">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5">
+        <f>C17-表1_4678[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="25">
+        <v>85</v>
+      </c>
+      <c r="N16" s="26">
+        <v>0.65384615384615385</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="15.05">
+      <c r="B17" s="1">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5">
+        <f>C18-表1_4678[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="L17" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="25">
+        <v>130</v>
+      </c>
+      <c r="N17" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="22.55" customHeight="1">
+      <c r="B18" s="1">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5">
+        <f>C19-表1_4678[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="2:14" ht="22.55" customHeight="1">
+      <c r="B19" s="1">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5">
+        <f>C20-表1_4678[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="2:14" ht="22.55" customHeight="1">
+      <c r="B20" s="1">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5">
+        <f>C21-表1_4678[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="2:14" ht="22.55" customHeight="1">
+      <c r="B21" s="1">
+        <v>17</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5">
+        <f>C22-表1_4678[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{FDDFFE65-91FD-4974-91AE-385BA56BD556}">
+            <xm:f>下拉列表!$A$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{058FABA4-1E58-41E7-B651-33E641003581}">
+            <xm:f>下拉列表!$A$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{8F01FA17-756A-4C2A-8C87-144DACA3911A}">
+            <xm:f>下拉列表!$A$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{6CBA36DE-18EA-480F-9B70-356DDEF56459}">
+            <xm:f>下拉列表!$A$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color auto="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor auto="1"/>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I6:I21</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>下拉列表!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>I6:I21</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>下拉列表!$D$2:$D$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>H6:H21</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.55" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.21875" style="3" customWidth="1"/>
+    <col min="2" max="3" width="11.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="41.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="3"/>
+    <col min="12" max="12" width="10" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="13.109375" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" ht="22.55" customHeight="1">
+      <c r="L2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="16"/>
+    </row>
+    <row r="3" spans="2:16" ht="22.55" customHeight="1">
+      <c r="L3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="19">
+        <v>44836</v>
+      </c>
+      <c r="P3" s="16"/>
+    </row>
+    <row r="4" spans="2:16" ht="22.55" customHeight="1">
+      <c r="L4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="20">
+        <v>0.59930555555555554</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="15.05">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="15.05">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C7-表1_467[[#This Row],[开始时间]]</f>
+        <v>2.1527777777777812E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <f>(C7-C6)*24*60</f>
+        <v>31.00000000000005</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="25">
+        <v>15</v>
+      </c>
+      <c r="N6" s="26">
+        <v>0.11538461538461539</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="15.05">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.41388888888888892</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C8-表1_467[[#This Row],[开始时间]]</f>
+        <v>2.2222222222222199E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" ref="E7:E21" si="0">(C8-C7)*24*60</f>
+        <v>31.999999999999964</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="25">
+        <v>80</v>
+      </c>
+      <c r="N7" s="26">
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="15.05">
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="D8" s="5">
+        <f>C9-表1_467[[#This Row],[开始时间]]</f>
+        <v>0.16249999999999998</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>233.99999999999997</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="25">
+        <v>5</v>
+      </c>
+      <c r="N8" s="26">
+        <v>3.8461538461538464E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="15.05">
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.59861111111111109</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C10-表1_467[[#This Row],[开始时间]]</f>
+        <v>5.5555555555555358E-3</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>7.9999999999999716</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="25">
+        <v>30</v>
+      </c>
+      <c r="N9" s="26">
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="30.05">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C11-表1_467[[#This Row],[开始时间]]</f>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>40.000000000000014</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="J10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="25">
+        <v>130</v>
+      </c>
+      <c r="N10" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="22.55" customHeight="1">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C12-表1_467[[#This Row],[开始时间]]</f>
+        <v>0.10347222222222219</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>148.99999999999994</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="22.55" customHeight="1">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.73541666666666661</v>
+      </c>
+      <c r="D12" s="5">
+        <f>C13-表1_467[[#This Row],[开始时间]]</f>
+        <v>1.1111111111111183E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>16.000000000000103</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="22.55" customHeight="1">
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.74652777777777779</v>
+      </c>
+      <c r="D13" s="5">
+        <f>C14-表1_467[[#This Row],[开始时间]]</f>
+        <v>-0.74652777777777779</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>-1075</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="15.05">
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5">
+        <f>C15-表1_467[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="L14" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="15.05">
+      <c r="B15" s="1">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5">
+        <f>C16-表1_467[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="25">
+        <v>45</v>
+      </c>
+      <c r="N15" s="26" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="15.05">
+      <c r="B16" s="1">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5">
+        <f>C17-表1_467[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="25">
+        <v>85</v>
+      </c>
+      <c r="N16" s="26" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="15.05">
+      <c r="B17" s="1">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5">
+        <f>C18-表1_467[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="L17" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N17" s="26" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="15.05">
+      <c r="B18" s="1">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5">
+        <f>C19-表1_467[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="L18" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N18" s="26" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="22.55" customHeight="1">
+      <c r="B19" s="1">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5">
+        <f>C20-表1_467[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="2:14" ht="22.55" customHeight="1">
+      <c r="B20" s="1">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5">
+        <f>C21-表1_467[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="2:14" ht="22.55" customHeight="1">
+      <c r="B21" s="1">
+        <v>17</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5">
+        <f>C22-表1_467[[#This Row],[开始时间]]</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{87D39A2B-01BB-4078-AAF6-115195D26C48}">
+            <xm:f>下拉列表!$A$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{90AAC5D1-F6B2-4B53-A615-E287BB6CFA9B}">
+            <xm:f>下拉列表!$A$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{6F55C022-5C6A-42AF-8BA9-5675B8FFB92A}">
+            <xm:f>下拉列表!$A$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{B78D868E-ECB0-4AF4-8C53-190B7F609926}">
+            <xm:f>下拉列表!$A$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color auto="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor auto="1"/>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I6:I21</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>下拉列表!$D$2:$D$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>H6:H21</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>下拉列表!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>I6:I21</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.55" customHeight="1"/>
@@ -2612,43 +7588,44 @@
     <col min="4" max="4" width="10.21875" style="2" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="22.21875" style="2" customWidth="1"/>
     <col min="6" max="6" width="34.109375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="34.88671875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="3"/>
-    <col min="11" max="11" width="12.109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14" style="3" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" style="3" customWidth="1"/>
     <col min="14" max="14" width="12.88671875" style="3" customWidth="1"/>
     <col min="15" max="15" width="13.109375" style="3" customWidth="1"/>
     <col min="16" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="22.55" customHeight="1">
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="20"/>
+      <c r="M2" s="16"/>
     </row>
     <row r="3" spans="2:15" ht="22.55" customHeight="1">
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="19">
         <v>44154</v>
       </c>
-      <c r="O3" s="20"/>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" spans="2:15" ht="22.55" customHeight="1">
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="20">
         <v>0.5229166666666667</v>
       </c>
     </row>
@@ -2657,15 +7634,15 @@
       <c r="H6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="21">
         <v>44818</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="9.6999999999999993" customHeight="1"/>
-    <row r="8" spans="2:15" ht="22.55" customHeight="1">
+    <row r="8" spans="2:15" ht="15.05">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -2690,24 +7667,24 @@
       <c r="I8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="22.55" customHeight="1">
+    <row r="9" spans="2:15" ht="15.05">
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.3972222222222222</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <f>C10-表1_46[[#This Row],[开始时间]]</f>
         <v>4.6527777777777835E-2</v>
       </c>
@@ -2715,33 +7692,33 @@
         <f>HOUR(表1_46[开始时间])*60+MINUTE(表1_46[开始时间])</f>
         <v>572</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>42</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="25">
         <v>15</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="26">
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="22.55" customHeight="1">
+    <row r="10" spans="2:15" ht="15.05">
       <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>0.44375000000000003</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <f>C11-表1_46[[#This Row],[开始时间]]</f>
         <v>0.14999999999999997</v>
       </c>
@@ -2749,33 +7726,33 @@
         <f>HOUR(表1_46[开始时间])*60+MINUTE(表1_46[开始时间])</f>
         <v>639</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="25">
         <v>80</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="26">
         <v>0.61538461538461542</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="22.55" customHeight="1">
+    <row r="11" spans="2:15" ht="30.05">
       <c r="B11" s="1">
         <v>3</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>0.59375</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <f>C12-表1_46[[#This Row],[开始时间]]</f>
         <v>-0.13750000000000001</v>
       </c>
@@ -2783,33 +7760,33 @@
         <f>HOUR(表1_46[开始时间])*60+MINUTE(表1_46[开始时间])</f>
         <v>855</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="25">
         <v>5</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="26">
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="22.55" customHeight="1">
+    <row r="12" spans="2:15" ht="15.05">
       <c r="B12" s="1">
         <v>4</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>0.45624999999999999</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <f>C13-表1_46[[#This Row],[开始时间]]</f>
         <v>0.15138888888888896</v>
       </c>
@@ -2817,31 +7794,31 @@
         <f>HOUR(表1_46[开始时间])*60+MINUTE(表1_46[开始时间])</f>
         <v>657</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="25">
         <v>30</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="26">
         <v>0.23076923076923078</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="22.55" customHeight="1">
+    <row r="13" spans="2:15" ht="15.05">
       <c r="B13" s="1">
         <v>6</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>0.60763888888888895</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <f>C14-表1_46[[#This Row],[开始时间]]</f>
         <v>5.5555555555555358E-3</v>
       </c>
@@ -2849,15 +7826,15 @@
         <f>HOUR(表1_46[开始时间])*60+MINUTE(表1_46[开始时间])</f>
         <v>875</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-      <c r="K13" s="9" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="K13" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="25">
         <v>130</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="26">
         <v>1</v>
       </c>
     </row>
@@ -2865,10 +7842,10 @@
       <c r="B14" s="1">
         <v>7</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>0.61319444444444449</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <f>C15-表1_46[[#This Row],[开始时间]]</f>
         <v>2.4999999999999911E-2</v>
       </c>
@@ -2876,10 +7853,10 @@
         <f>HOUR(表1_46[开始时间])*60+MINUTE(表1_46[开始时间])</f>
         <v>883</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -2893,47 +7870,51 @@
       <c r="B15" s="1">
         <v>8</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>0.6381944444444444</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <f>C16-表1_46[[#This Row],[开始时间]]</f>
-        <v>-0.6381944444444444</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2">
         <f>HOUR(表1_46[开始时间])*60+MINUTE(表1_46[开始时间])</f>
         <v>919</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="2:15" ht="22.55" customHeight="1">
       <c r="B16" s="1">
         <v>9</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6">
+      <c r="C16" s="4">
+        <v>0.6381944444444444</v>
+      </c>
+      <c r="D16" s="5">
         <f>C17-表1_46[[#This Row],[开始时间]]</f>
-        <v>0</v>
+        <v>-0.6381944444444444</v>
       </c>
       <c r="E16" s="2">
         <f>HOUR(表1_46[开始时间])*60+MINUTE(表1_46[开始时间])</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="K16" s="20" t="s">
+        <v>919</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="K16" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="22.55" customHeight="1">
+    <row r="17" spans="2:13" ht="15.05">
       <c r="B17" s="1">
         <v>10</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6">
+      <c r="C17" s="4"/>
+      <c r="D17" s="5">
         <f>C18-表1_46[[#This Row],[开始时间]]</f>
         <v>0</v>
       </c>
@@ -2941,24 +7922,24 @@
         <f>HOUR(表1_46[开始时间])*60+MINUTE(表1_46[开始时间])</f>
         <v>0</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-      <c r="K17" s="3" t="s">
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="K17" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="22.55" customHeight="1">
+    <row r="18" spans="2:13" ht="15.05">
       <c r="B18" s="1">
         <v>11</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6">
+      <c r="C18" s="4"/>
+      <c r="D18" s="5">
         <f>C19-表1_46[[#This Row],[开始时间]]</f>
         <v>0</v>
       </c>
@@ -2966,8 +7947,8 @@
         <f>HOUR(表1_46[开始时间])*60+MINUTE(表1_46[开始时间])</f>
         <v>0</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8" t="s">
+      <c r="F18" s="6"/>
+      <c r="G18" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -2976,22 +7957,22 @@
       <c r="I18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="25">
         <v>45</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="26">
         <v>0.34615384615384615</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="22.55" customHeight="1">
+    <row r="19" spans="2:13" ht="15.05">
       <c r="B19" s="1">
         <v>12</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6">
+      <c r="C19" s="4"/>
+      <c r="D19" s="5">
         <f>C20-表1_46[[#This Row],[开始时间]]</f>
         <v>0</v>
       </c>
@@ -2999,8 +7980,8 @@
         <f>HOUR(表1_46[开始时间])*60+MINUTE(表1_46[开始时间])</f>
         <v>0</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8" t="s">
+      <c r="F19" s="6"/>
+      <c r="G19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -3009,22 +7990,22 @@
       <c r="I19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="25">
         <v>85</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="26">
         <v>0.65384615384615385</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="22.55" customHeight="1">
+    <row r="20" spans="2:13" ht="15.05">
       <c r="B20" s="1">
         <v>13</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6">
+      <c r="C20" s="4"/>
+      <c r="D20" s="5">
         <f>C21-表1_46[[#This Row],[开始时间]]</f>
         <v>0</v>
       </c>
@@ -3032,15 +8013,15 @@
         <f>HOUR(表1_46[开始时间])*60+MINUTE(表1_46[开始时间])</f>
         <v>0</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-      <c r="K20" s="9" t="s">
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
+      <c r="K20" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="25">
         <v>130</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="26">
         <v>1</v>
       </c>
     </row>
@@ -3048,8 +8029,8 @@
       <c r="B21" s="1">
         <v>14</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6">
+      <c r="C21" s="4"/>
+      <c r="D21" s="5">
         <f>C22-表1_46[[#This Row],[开始时间]]</f>
         <v>0</v>
       </c>
@@ -3057,15 +8038,15 @@
         <f>HOUR(表1_46[开始时间])*60+MINUTE(表1_46[开始时间])</f>
         <v>0</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="2:13" ht="22.55" customHeight="1">
       <c r="B22" s="1">
         <v>15</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6">
+      <c r="C22" s="4"/>
+      <c r="D22" s="5">
         <f>C23-表1_46[[#This Row],[开始时间]]</f>
         <v>0</v>
       </c>
@@ -3073,15 +8054,15 @@
         <f>HOUR(表1_46[开始时间])*60+MINUTE(表1_46[开始时间])</f>
         <v>0</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="2:13" ht="22.55" customHeight="1">
       <c r="B23" s="1">
         <v>16</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6">
+      <c r="C23" s="4"/>
+      <c r="D23" s="5">
         <f>C24-表1_46[[#This Row],[开始时间]]</f>
         <v>0</v>
       </c>
@@ -3089,15 +8070,15 @@
         <f>HOUR(表1_46[开始时间])*60+MINUTE(表1_46[开始时间])</f>
         <v>0</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="2:13" ht="22.55" customHeight="1">
       <c r="B24" s="1">
         <v>17</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6">
+      <c r="C24" s="4"/>
+      <c r="D24" s="5">
         <f>C25-表1_46[[#This Row],[开始时间]]</f>
         <v>0</v>
       </c>
@@ -3105,8 +8086,8 @@
         <f>HOUR(表1_46[开始时间])*60+MINUTE(表1_46[开始时间])</f>
         <v>0</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3188,11 +8169,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="58.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
@@ -3207,40 +8231,40 @@
     <col min="7" max="8" width="10.77734375" style="1" customWidth="1"/>
     <col min="9" max="9" width="24.88671875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="3"/>
-    <col min="11" max="11" width="12.109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14" style="3" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" style="3" customWidth="1"/>
     <col min="14" max="14" width="12.88671875" style="3" customWidth="1"/>
     <col min="15" max="15" width="13.109375" style="3" customWidth="1"/>
     <col min="16" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="22.55" customHeight="1">
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="20"/>
+      <c r="M2" s="16"/>
     </row>
     <row r="3" spans="2:15" ht="22.55" customHeight="1">
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="19">
         <v>44154</v>
       </c>
-      <c r="O3" s="20"/>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" spans="2:15" ht="22.55" customHeight="1">
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="20">
         <v>0.5229166666666667</v>
       </c>
     </row>
@@ -3249,15 +8273,15 @@
       <c r="H6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="21">
         <v>44816</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="9.6999999999999993" customHeight="1"/>
-    <row r="8" spans="2:15" ht="22.55" customHeight="1">
+    <row r="8" spans="2:15" ht="15.05">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -3282,24 +8306,24 @@
       <c r="I8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="22.55" customHeight="1">
+    <row r="9" spans="2:15" ht="15.05">
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.3972222222222222</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <f>C10-表1_4[[#This Row],[开始时间]]</f>
         <v>4.6527777777777835E-2</v>
       </c>
@@ -3307,33 +8331,33 @@
         <f>HOUR(表1_4[开始时间])*60+MINUTE(表1_4[开始时间])</f>
         <v>572</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>42</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="25">
         <v>15</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="26">
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="22.55" customHeight="1">
+    <row r="10" spans="2:15" ht="15.05">
       <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>0.44375000000000003</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <f>C11-表1_4[[#This Row],[开始时间]]</f>
         <v>0.14999999999999997</v>
       </c>
@@ -3341,33 +8365,33 @@
         <f>HOUR(表1_4[开始时间])*60+MINUTE(表1_4[开始时间])</f>
         <v>639</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="25">
         <v>80</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="26">
         <v>0.61538461538461542</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="22.55" customHeight="1">
+    <row r="11" spans="2:15" ht="30.05">
       <c r="B11" s="1">
         <v>3</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>0.59375</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <f>C12-表1_4[[#This Row],[开始时间]]</f>
         <v>-0.13750000000000001</v>
       </c>
@@ -3375,33 +8399,33 @@
         <f>HOUR(表1_4[开始时间])*60+MINUTE(表1_4[开始时间])</f>
         <v>855</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="25">
         <v>5</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="26">
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="22.55" customHeight="1">
+    <row r="12" spans="2:15" ht="15.05">
       <c r="B12" s="1">
         <v>4</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>0.45624999999999999</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <f>C13-表1_4[[#This Row],[开始时间]]</f>
         <v>0.15138888888888896</v>
       </c>
@@ -3409,31 +8433,31 @@
         <f>HOUR(表1_4[开始时间])*60+MINUTE(表1_4[开始时间])</f>
         <v>657</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="25">
         <v>30</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="26">
         <v>0.23076923076923078</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="22.55" customHeight="1">
+    <row r="13" spans="2:15" ht="15.05">
       <c r="B13" s="1">
         <v>6</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>0.60763888888888895</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <f>C14-表1_4[[#This Row],[开始时间]]</f>
         <v>-1.9444444444444486E-2</v>
       </c>
@@ -3441,15 +8465,15 @@
         <f>HOUR(表1_4[开始时间])*60+MINUTE(表1_4[开始时间])</f>
         <v>875</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-      <c r="K13" s="9" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="K13" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="25">
         <v>130</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="26">
         <v>1</v>
       </c>
     </row>
@@ -3457,10 +8481,10 @@
       <c r="B14" s="1">
         <v>7</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>0.58819444444444446</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <f>C15-表1_4[[#This Row],[开始时间]]</f>
         <v>-0.2104166666666667</v>
       </c>
@@ -3468,19 +8492,19 @@
         <f>HOUR(表1_4[开始时间])*60+MINUTE(表1_4[开始时间])</f>
         <v>847</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="2:15" ht="22.55" customHeight="1">
       <c r="B15" s="1">
         <v>8</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>0.37777777777777777</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <f>C16-表1_4[[#This Row],[开始时间]]</f>
         <v>2.430555555555558E-2</v>
       </c>
@@ -3488,19 +8512,19 @@
         <f>HOUR(表1_4[开始时间])*60+MINUTE(表1_4[开始时间])</f>
         <v>544</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="2:15" ht="22.55" customHeight="1">
       <c r="B16" s="1">
         <v>9</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>0.40208333333333335</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <f>C17-表1_4[[#This Row],[开始时间]]</f>
         <v>0.18680555555555556</v>
       </c>
@@ -3508,22 +8532,22 @@
         <f>HOUR(表1_4[开始时间])*60+MINUTE(表1_4[开始时间])</f>
         <v>579</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="K16" s="20" t="s">
+      <c r="G16" s="7"/>
+      <c r="K16" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="22.55" customHeight="1">
+    <row r="17" spans="2:13" ht="15.05">
       <c r="B17" s="1">
         <v>10</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>0.58888888888888891</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <f>C18-表1_4[[#This Row],[开始时间]]</f>
         <v>1.5972222222222276E-2</v>
       </c>
@@ -3531,28 +8555,28 @@
         <f>HOUR(表1_4[开始时间])*60+MINUTE(表1_4[开始时间])</f>
         <v>848</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="K17" s="3" t="s">
+      <c r="G17" s="7"/>
+      <c r="K17" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="22.55" customHeight="1">
+    <row r="18" spans="2:13" ht="15.05">
       <c r="B18" s="1">
         <v>11</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>0.60486111111111118</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <f>C19-表1_4[[#This Row],[开始时间]]</f>
         <v>1.3194444444444398E-2</v>
       </c>
@@ -3560,10 +8584,10 @@
         <f>HOUR(表1_4[开始时间])*60+MINUTE(表1_4[开始时间])</f>
         <v>871</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -3572,24 +8596,24 @@
       <c r="I18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="25">
         <v>45</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="26">
         <v>0.34615384615384615</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="22.55" customHeight="1">
+    <row r="19" spans="2:13" ht="15.05">
       <c r="B19" s="1">
         <v>12</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>0.61805555555555558</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <f>C20-表1_4[[#This Row],[开始时间]]</f>
         <v>-0.61805555555555558</v>
       </c>
@@ -3597,10 +8621,10 @@
         <f>HOUR(表1_4[开始时间])*60+MINUTE(表1_4[开始时间])</f>
         <v>890</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -3609,22 +8633,22 @@
       <c r="I19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="25">
         <v>85</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="26">
         <v>0.65384615384615385</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="22.55" customHeight="1">
+    <row r="20" spans="2:13" ht="15.05">
       <c r="B20" s="1">
         <v>13</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6">
+      <c r="C20" s="4"/>
+      <c r="D20" s="5">
         <f>C21-表1_4[[#This Row],[开始时间]]</f>
         <v>0</v>
       </c>
@@ -3632,15 +8656,15 @@
         <f>HOUR(表1_4[开始时间])*60+MINUTE(表1_4[开始时间])</f>
         <v>0</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-      <c r="K20" s="9" t="s">
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
+      <c r="K20" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="25">
         <v>130</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="26">
         <v>1</v>
       </c>
     </row>
@@ -3648,8 +8672,8 @@
       <c r="B21" s="1">
         <v>14</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6">
+      <c r="C21" s="4"/>
+      <c r="D21" s="5">
         <f>C22-表1_4[[#This Row],[开始时间]]</f>
         <v>0</v>
       </c>
@@ -3657,15 +8681,15 @@
         <f>HOUR(表1_4[开始时间])*60+MINUTE(表1_4[开始时间])</f>
         <v>0</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="2:13" ht="22.55" customHeight="1">
       <c r="B22" s="1">
         <v>15</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6">
+      <c r="C22" s="4"/>
+      <c r="D22" s="5">
         <f>C23-表1_4[[#This Row],[开始时间]]</f>
         <v>0</v>
       </c>
@@ -3673,15 +8697,15 @@
         <f>HOUR(表1_4[开始时间])*60+MINUTE(表1_4[开始时间])</f>
         <v>0</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="2:13" ht="22.55" customHeight="1">
       <c r="B23" s="1">
         <v>16</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6">
+      <c r="C23" s="4"/>
+      <c r="D23" s="5">
         <f>C24-表1_4[[#This Row],[开始时间]]</f>
         <v>0</v>
       </c>
@@ -3689,15 +8713,15 @@
         <f>HOUR(表1_4[开始时间])*60+MINUTE(表1_4[开始时间])</f>
         <v>0</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="2:13" ht="22.55" customHeight="1">
       <c r="B24" s="1">
         <v>17</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6">
+      <c r="C24" s="4"/>
+      <c r="D24" s="5">
         <f>C25-表1_4[[#This Row],[开始时间]]</f>
         <v>0</v>
       </c>
@@ -3705,8 +8729,8 @@
         <f>HOUR(表1_4[开始时间])*60+MINUTE(表1_4[开始时间])</f>
         <v>0</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3788,7 +8812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O24"/>
   <sheetViews>
@@ -3807,40 +8831,40 @@
     <col min="7" max="8" width="10.77734375" style="1" customWidth="1"/>
     <col min="9" max="9" width="24.88671875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="3"/>
-    <col min="11" max="11" width="12.109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14" style="3" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" style="3" customWidth="1"/>
     <col min="14" max="14" width="12.88671875" style="3" customWidth="1"/>
     <col min="15" max="15" width="13.109375" style="3" customWidth="1"/>
     <col min="16" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="22.55" customHeight="1">
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="20"/>
+      <c r="M2" s="16"/>
     </row>
     <row r="3" spans="2:15" ht="22.55" customHeight="1">
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="19">
         <v>44154</v>
       </c>
-      <c r="O3" s="20"/>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" spans="2:15" ht="22.55" customHeight="1">
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="20">
         <v>0.5229166666666667</v>
       </c>
     </row>
@@ -3849,13 +8873,13 @@
       <c r="H6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="K6" s="20" t="s">
+      <c r="I6" s="17"/>
+      <c r="K6" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="9.6999999999999993" customHeight="1"/>
-    <row r="8" spans="2:15" ht="22.55" customHeight="1">
+    <row r="8" spans="2:15" ht="15.05">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -3880,24 +8904,24 @@
       <c r="I8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="22.55" customHeight="1">
+    <row r="9" spans="2:15" ht="15.05">
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.51736111111111105</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <f>C10-表1[[#This Row],[开始时间]]</f>
         <v>5.555555555555558E-2</v>
       </c>
@@ -3905,33 +8929,33 @@
         <f>HOUR(表1[[#This Row],[时长]])*60+MINUTE(表1[[#This Row],[时长]])</f>
         <v>80</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>42</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="25">
         <v>15</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="26">
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="22.55" customHeight="1">
+    <row r="10" spans="2:15" ht="15.05">
       <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <f>C11-表1[[#This Row],[开始时间]]</f>
         <v>2.083333333333337E-2</v>
       </c>
@@ -3939,33 +8963,33 @@
         <f>HOUR(表1[[#This Row],[时长]])*60+MINUTE(表1[[#This Row],[时长]])</f>
         <v>30</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="25">
         <v>80</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="26">
         <v>0.61538461538461542</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="22.55" customHeight="1">
+    <row r="11" spans="2:15" ht="30.05">
       <c r="B11" s="1">
         <v>3</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>0.59375</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <f>C12-表1[[#This Row],[开始时间]]</f>
         <v>1.041666666666663E-2</v>
       </c>
@@ -3973,33 +8997,33 @@
         <f>HOUR(表1[[#This Row],[时长]])*60+MINUTE(表1[[#This Row],[时长]])</f>
         <v>15</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="25">
         <v>5</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="26">
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="22.55" customHeight="1">
+    <row r="12" spans="2:15" ht="30.05">
       <c r="B12" s="1">
         <v>4</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <f>C13-表1[[#This Row],[开始时间]]</f>
         <v>3.4722222222223209E-3</v>
       </c>
@@ -4007,33 +9031,33 @@
         <f>HOUR(表1[[#This Row],[时长]])*60+MINUTE(表1[[#This Row],[时长]])</f>
         <v>5</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="25">
         <v>30</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="26">
         <v>0.23076923076923078</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="22.55" customHeight="1">
+    <row r="13" spans="2:15" ht="15.05">
       <c r="B13" s="1">
         <v>6</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>0.60763888888888895</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <f>C14-表1[[#This Row],[开始时间]]</f>
         <v>-0.60763888888888895</v>
       </c>
@@ -4041,15 +9065,15 @@
         <f>HOUR(表1[[#This Row],[时长]])*60+MINUTE(表1[[#This Row],[时长]])</f>
         <v>#NUM!</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-      <c r="K13" s="9" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="K13" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="25">
         <v>130</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="26">
         <v>1</v>
       </c>
     </row>
@@ -4057,8 +9081,8 @@
       <c r="B14" s="1">
         <v>7</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6">
+      <c r="C14" s="4"/>
+      <c r="D14" s="5">
         <f>C15-表1[[#This Row],[开始时间]]</f>
         <v>0</v>
       </c>
@@ -4066,15 +9090,15 @@
         <f>HOUR(表1[[#This Row],[时长]])*60+MINUTE(表1[[#This Row],[时长]])</f>
         <v>0</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="2:15" ht="22.55" customHeight="1">
       <c r="B15" s="1">
         <v>8</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6">
+      <c r="C15" s="4"/>
+      <c r="D15" s="5">
         <f>C16-表1[[#This Row],[开始时间]]</f>
         <v>0</v>
       </c>
@@ -4082,15 +9106,15 @@
         <f>HOUR(表1[[#This Row],[时长]])*60+MINUTE(表1[[#This Row],[时长]])</f>
         <v>0</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="2:15" ht="22.55" customHeight="1">
       <c r="B16" s="1">
         <v>9</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6">
+      <c r="C16" s="4"/>
+      <c r="D16" s="5">
         <f>C17-表1[[#This Row],[开始时间]]</f>
         <v>0</v>
       </c>
@@ -4098,18 +9122,18 @@
         <f>HOUR(表1[[#This Row],[时长]])*60+MINUTE(表1[[#This Row],[时长]])</f>
         <v>0</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="K16" s="20" t="s">
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="K16" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="22.55" customHeight="1">
+    <row r="17" spans="2:13" ht="15.05">
       <c r="B17" s="1">
         <v>10</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6">
+      <c r="C17" s="4"/>
+      <c r="D17" s="5">
         <f>C18-表1[[#This Row],[开始时间]]</f>
         <v>0</v>
       </c>
@@ -4117,24 +9141,24 @@
         <f>HOUR(表1[[#This Row],[时长]])*60+MINUTE(表1[[#This Row],[时长]])</f>
         <v>0</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-      <c r="K17" s="4" t="s">
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="K17" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="22.55" customHeight="1">
+    <row r="18" spans="2:13" ht="15.05">
       <c r="B18" s="1">
         <v>11</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6">
+      <c r="C18" s="4"/>
+      <c r="D18" s="5">
         <f>C19-表1[[#This Row],[开始时间]]</f>
         <v>0</v>
       </c>
@@ -4142,24 +9166,24 @@
         <f>HOUR(表1[[#This Row],[时长]])*60+MINUTE(表1[[#This Row],[时长]])</f>
         <v>0</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-      <c r="K18" s="9" t="s">
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="K18" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="25">
         <v>45</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="26">
         <v>0.34615384615384615</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="22.55" customHeight="1">
+    <row r="19" spans="2:13" ht="15.05">
       <c r="B19" s="1">
         <v>12</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6">
+      <c r="C19" s="4"/>
+      <c r="D19" s="5">
         <f>C20-表1[[#This Row],[开始时间]]</f>
         <v>0</v>
       </c>
@@ -4167,24 +9191,24 @@
         <f>HOUR(表1[[#This Row],[时长]])*60+MINUTE(表1[[#This Row],[时长]])</f>
         <v>0</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-      <c r="K19" s="9" t="s">
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
+      <c r="K19" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="25">
         <v>85</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="26">
         <v>0.65384615384615385</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="22.55" customHeight="1">
+    <row r="20" spans="2:13" ht="15.05">
       <c r="B20" s="1">
         <v>13</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6">
+      <c r="C20" s="4"/>
+      <c r="D20" s="5">
         <f>C21-表1[[#This Row],[开始时间]]</f>
         <v>0</v>
       </c>
@@ -4192,15 +9216,15 @@
         <f>HOUR(表1[[#This Row],[时长]])*60+MINUTE(表1[[#This Row],[时长]])</f>
         <v>0</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-      <c r="K20" s="9" t="s">
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
+      <c r="K20" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="25">
         <v>130</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="26">
         <v>1</v>
       </c>
     </row>
@@ -4208,8 +9232,8 @@
       <c r="B21" s="1">
         <v>14</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6">
+      <c r="C21" s="4"/>
+      <c r="D21" s="5">
         <f>C22-表1[[#This Row],[开始时间]]</f>
         <v>0</v>
       </c>
@@ -4217,15 +9241,15 @@
         <f>HOUR(表1[[#This Row],[时长]])*60+MINUTE(表1[[#This Row],[时长]])</f>
         <v>0</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="2:13" ht="22.55" customHeight="1">
       <c r="B22" s="1">
         <v>15</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6">
+      <c r="C22" s="4"/>
+      <c r="D22" s="5">
         <f>C23-表1[[#This Row],[开始时间]]</f>
         <v>0</v>
       </c>
@@ -4233,15 +9257,15 @@
         <f>HOUR(表1[[#This Row],[时长]])*60+MINUTE(表1[[#This Row],[时长]])</f>
         <v>0</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="2:13" ht="22.55" customHeight="1">
       <c r="B23" s="1">
         <v>16</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6">
+      <c r="C23" s="4"/>
+      <c r="D23" s="5">
         <f>C24-表1[[#This Row],[开始时间]]</f>
         <v>0</v>
       </c>
@@ -4249,15 +9273,15 @@
         <f>HOUR(表1[[#This Row],[时长]])*60+MINUTE(表1[[#This Row],[时长]])</f>
         <v>0</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="2:13" ht="22.55" customHeight="1">
       <c r="B24" s="1">
         <v>17</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6">
+      <c r="C24" s="4"/>
+      <c r="D24" s="5">
         <f>C25-表1[[#This Row],[开始时间]]</f>
         <v>0</v>
       </c>
@@ -4265,8 +9289,8 @@
         <f>HOUR(表1[[#This Row],[时长]])*60+MINUTE(表1[[#This Row],[时长]])</f>
         <v>0</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4348,7 +9372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D13"/>
   <sheetViews>
@@ -4367,7 +9391,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="22.55" customHeight="1">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4377,7 +9401,7 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="22.55" customHeight="1">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4393,7 +9417,7 @@
       <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="9">
         <v>44154</v>
       </c>
     </row>
@@ -4404,7 +9428,7 @@
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="10">
         <v>0.5229166666666667</v>
       </c>
     </row>
@@ -4414,7 +9438,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="22.55" customHeight="1">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4442,103 +9466,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.55" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="10.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="10.21875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="22.55" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="22.55" customHeight="1">
-      <c r="A2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="22.55" customHeight="1">
-      <c r="A3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="22.55" customHeight="1">
-      <c r="A4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="22.55" customHeight="1">
-      <c r="A5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="22.55" customHeight="1">
-      <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="22.55" customHeight="1">
-      <c r="D7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="22.55" customHeight="1">
-      <c r="D8" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="22.55" customHeight="1">
-      <c r="D9" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="22.55" customHeight="1">
-      <c r="D10" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
 </file>